--- a/Forms/ReportTemplates/Geri - TUG.xlsx
+++ b/Forms/ReportTemplates/Geri - TUG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A55B54-7CC1-4AC9-92B5-70AFB987B985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE66E7-1E71-4645-B1CA-C83B0D78BEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F6:F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,44 +454,44 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
